--- a/Support/Quality Assurance/CHKL_ADTTRN.xlsx
+++ b/Support/Quality Assurance/CHKL_ADTTRN.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="12600" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="12600" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="17" r:id="rId1"/>
@@ -77,13 +77,13 @@
     <t>Genus Innovation Limited</t>
   </si>
   <si>
-    <t>Are the session feedback reports being communicated to t he trainers?</t>
-  </si>
-  <si>
     <t>Has the training material been reviewed authorities?</t>
   </si>
   <si>
-    <t>Template Version - 2</t>
+    <t>Template Version - 3</t>
+  </si>
+  <si>
+    <t>Are the session feedback reports being communicated to the trainers?</t>
   </si>
 </sst>
 </file>
@@ -263,7 +263,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
@@ -293,6 +293,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -305,24 +306,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -411,6 +394,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -425,12 +424,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -447,13 +448,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:D21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:D21" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A8:D21"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="S.No" dataDxfId="4"/>
-    <tableColumn id="2" name="Checkpoint" dataDxfId="3"/>
-    <tableColumn id="3" name="Major Non-Conformance/ Minor Non-Conformance/ Observation" dataDxfId="2"/>
-    <tableColumn id="4" name="Log ID" dataDxfId="1"/>
+    <tableColumn id="1" name="S.No" dataDxfId="3"/>
+    <tableColumn id="2" name="Checkpoint" dataDxfId="2"/>
+    <tableColumn id="3" name="Major Non-Conformance/ Minor Non-Conformance/ Observation" dataDxfId="1"/>
+    <tableColumn id="4" name="Log ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -748,9 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -766,7 +765,7 @@
     </row>
     <row r="5" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -778,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +834,7 @@
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -845,7 +844,7 @@
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,7 +854,7 @@
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,7 +864,7 @@
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,7 +874,7 @@
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,7 +884,7 @@
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,7 +894,7 @@
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -903,9 +902,9 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="19"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,7 +914,7 @@
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,7 +924,7 @@
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,7 +934,7 @@
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -945,7 +944,7 @@
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -953,15 +952,15 @@
         <v>13</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="19"/>
       <c r="D21" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C21">
-      <formula1>"Conformance,Major Non-Conformance,Minor Non-Conformance,Observation, NA"</formula1>
+      <formula1>"Conformance,Functional Non-Conformance,Non Functional Non-Conformance,Observation, NA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -973,21 +972,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005A068604E74C047BC66B3ED07869872" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d65b694ac3f1c289d6201da35c196e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -1036,10 +1020,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E1B4C23-DE5C-490D-89AA-4B4A4F4927A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64FF1C0E-EE84-43DE-BA37-E88CB50B980C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1059,16 +1065,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64FF1C0E-EE84-43DE-BA37-E88CB50B980C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E1B4C23-DE5C-490D-89AA-4B4A4F4927A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>